--- a/src/main/resources/static/df.xlsx
+++ b/src/main/resources/static/df.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="321">
   <si>
     <t>No</t>
   </si>
@@ -44,7 +44,7 @@
     <t>UNIQ_ID</t>
   </si>
   <si>
-    <t>TEST</t>
+    <t>Linux</t>
   </si>
   <si>
     <t>CentOS</t>
@@ -53,19 +53,19 @@
     <t>CentOS Linux release 7.9.2009 (Core)</t>
   </si>
   <si>
-    <t>localhost.localdomain</t>
-  </si>
-  <si>
-    <t>24-04-20</t>
-  </si>
-  <si>
-    <t>02:32:03</t>
-  </si>
-  <si>
-    <t>10.0.3.15</t>
-  </si>
-  <si>
-    <t>24-04-20_YFGJcUsfMn</t>
+    <t>ip-172-31-9-5.ap-northeast-2.compute.internal</t>
+  </si>
+  <si>
+    <t>24-08-11</t>
+  </si>
+  <si>
+    <t>13:42:59</t>
+  </si>
+  <si>
+    <t>172.31.9.5</t>
+  </si>
+  <si>
+    <t>24-08-11_Lq59mZx89B</t>
   </si>
   <si>
     <t>항목 코드</t>
@@ -368,7 +368,7 @@
     <t>2.6 /etc/(x)inetd.conf 파일 소유자 및 권한 설정</t>
   </si>
   <si>
-    <t>2.7 /etc/syslog.conf 파일 소유자 및 권한 설정</t>
+    <t>2.7 /etc/(r)syslog.conf 파일 소유자 및 권한 설정</t>
   </si>
   <si>
     <t>2.8 /etc/services 파일 소유자 및 권한 설정</t>
@@ -605,7 +605,7 @@
     <t>/etc/(x)inetd.conf 파일의 권한 적절성 점검</t>
   </si>
   <si>
-    <t>/etc/syslog.conf 파일의 권한 적절성 점검</t>
+    <t>/etc/(r)syslog.conf 파일의 권한 적절성 점검</t>
   </si>
   <si>
     <t>/etc/services 파일의 권한 적절성 점검</t>
@@ -786,19 +786,19 @@
     <t>/etc/login.defs 파일에서 패스워드 최소 사용기간이 0 일로 설정되어 있는 상태입니다.</t>
   </si>
   <si>
-    <t>로그인이 가능한 일반 사용자 계정(jwkim test )의 목적이 확인되지 않아 담당자 확인이 필요합니다.</t>
+    <t>로그인이 가능한 일반 사용자 계정(centos sjh )의 목적이 확인되지 않아 담당자 확인이 필요합니다.</t>
   </si>
   <si>
     <t>관리자 그룹(root)에 타사용자가 추가되어 있지 않은 상태입니다.</t>
   </si>
   <si>
-    <t>로그인이 가능한 사용자 계정(jwkim )의 그룹 내 타사용자가 존재하는 상태입니다.</t>
+    <t>로그인이 가능한 모든 사용자 계정의 그룹 내 타사용자가 존재하지 않고 모든 그룹이 존재하는 상태입니다.</t>
   </si>
   <si>
     <t>동일한 UID로 설정된 사용자 계정이 존재하지 않는 상태입니다.</t>
   </si>
   <si>
-    <t>로그인이 가능한 사용자(jwkim )의 bash_history 파일이 존재하지 않는 상태입니다.</t>
+    <t>로그인이 가능한 사용자(root sjh )의 bash_history 파일이 존재하지 않는 상태입니다.</t>
   </si>
   <si>
     <t>Session timeout 값이 설정되어 있지 않은 상태입니다.</t>
@@ -884,7 +884,7 @@
     <t>불필요한 NFS 서비스 관련 데몬이 비활성화 되어 있는 상태입니다.</t>
   </si>
   <si>
-    <t>NFS 서버가 설치되어 있지 않습니다.</t>
+    <t>NFS 서버 설정 파일에 불필요한 NFS 서비스가 비활성화 되어 있고, everyone 공유가 제한되어 있는 상태입니다.</t>
   </si>
   <si>
     <t>"automountd" 데몬이 비활성화되어 있는 상태입니다.</t>
@@ -929,7 +929,7 @@
     <t>"Apache" 데몬이  비활성화되어 있는 상태입니다.</t>
   </si>
   <si>
-    <t>glibc-2.17-326.el7_9.x86_64 openssh-7.4p1-23.el7_9.x86_64 openssh-clients-7.4p1-23.el7_9.x86_64 bash-4.2.46-35.el7_9.x86_64 glibc-common-2.17-326.el7_9.x86_64 openssl-libs-1.0.2k-26.el7_9.x86_64 openssh-server-7.4p1-23.el7_9.x86_64 openssl-1.0.2k-26.el7_9.x86_64  
+    <t xml:space="preserve">  
 패치 적용 정책을 수립하고 최신 패치를 적용하고 있는지 담당자 확인이 필요합니다.</t>
   </si>
   <si>
@@ -958,9 +958,6 @@
   </si>
   <si>
     <t>주요통신기반시설 가이드를 참고하여 /etc/login.defs 파일의 패스워드 최소 사용기간을 1일 이상으로 설정하여 주시기 바랍니다.</t>
-  </si>
-  <si>
-    <t>주요정보통신기반시설 가이드를 참고하시어 관리자 검토 후 불필요한 계정일 경우 제거하여 주시기 바랍니다.</t>
   </si>
   <si>
     <t>주요통신기반시설 가이드를 참고하시어 사용되지 않는 로그인 가능한 사용자 계정을 제거하거나 /bin/false 또는 /sbin/nologin 쉘을 부여하여 주시기 바랍니다.</t>
@@ -1897,7 +1894,7 @@
         <v>170</v>
       </c>
       <c r="I15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J15" t="s">
         <v>186</v>
@@ -1905,9 +1902,6 @@
       <c r="K15" t="s">
         <v>258</v>
       </c>
-      <c r="L15" t="s">
-        <v>312</v>
-      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
@@ -1979,7 +1973,7 @@
         <v>260</v>
       </c>
       <c r="L17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2017,7 +2011,7 @@
         <v>261</v>
       </c>
       <c r="L18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2195,7 +2189,7 @@
         <v>266</v>
       </c>
       <c r="L23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2268,7 +2262,7 @@
         <v>268</v>
       </c>
       <c r="L25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2341,7 +2335,7 @@
         <v>270</v>
       </c>
       <c r="L27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2519,7 +2513,7 @@
         <v>275</v>
       </c>
       <c r="L32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2592,7 +2586,7 @@
         <v>277</v>
       </c>
       <c r="L34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2840,7 +2834,7 @@
         <v>284</v>
       </c>
       <c r="L41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2939,7 +2933,7 @@
         <v>168</v>
       </c>
       <c r="I44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J44" t="s">
         <v>215</v>
@@ -4033,7 +4027,7 @@
         <v>304</v>
       </c>
       <c r="L75" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
